--- a/Unity/Assets/Config/Excel/MysteryConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFFADD-6026-494E-AA48-6D2FAC1DA9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC1F57-2FCA-4435-A13D-1E007FF3FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="170">
   <si>
     <t>Id</t>
   </si>
@@ -530,24 +530,6 @@
   </si>
   <si>
     <t>绿色果汁</t>
-  </si>
-  <si>
-    <t>精钢锭</t>
-  </si>
-  <si>
-    <t>符文布</t>
-  </si>
-  <si>
-    <t>炼金石</t>
-  </si>
-  <si>
-    <t>无粉尘</t>
-  </si>
-  <si>
-    <t>宠物蛋壳</t>
-  </si>
-  <si>
-    <t>勋章盒子</t>
   </si>
 </sst>
 </file>
@@ -641,7 +623,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,12 +675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14889980773339029"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1488082522049623"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,537 +915,765 @@
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,234 +1699,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1748,7 +1724,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1769,7 +1745,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1832,44 +1808,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1959,19 +1935,13 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2619,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3223,7 +3193,7 @@
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>1010011</v>
       </c>
       <c r="G18" s="2">
@@ -3258,7 +3228,7 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>1010012</v>
       </c>
       <c r="G19" s="2">
@@ -3293,7 +3263,7 @@
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>1010013</v>
       </c>
       <c r="G20" s="2">
@@ -3328,7 +3298,7 @@
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>1010014</v>
       </c>
       <c r="G21" s="2">
@@ -3363,7 +3333,7 @@
       <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>1010015</v>
       </c>
       <c r="G22" s="2">
@@ -3398,7 +3368,7 @@
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="33">
         <v>1010021</v>
       </c>
       <c r="G23" s="2">
@@ -3433,7 +3403,7 @@
       <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="33">
         <v>1010022</v>
       </c>
       <c r="G24" s="2">
@@ -3468,7 +3438,7 @@
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>1010023</v>
       </c>
       <c r="G25" s="2">
@@ -3503,7 +3473,7 @@
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <v>1010024</v>
       </c>
       <c r="G26" s="2">
@@ -3538,7 +3508,7 @@
       <c r="E27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="33">
         <v>1010025</v>
       </c>
       <c r="G27" s="2">
@@ -6846,7 +6816,7 @@
       <c r="K121" s="2">
         <v>1</v>
       </c>
-      <c r="L121" s="33">
+      <c r="L121" s="31">
         <v>1</v>
       </c>
       <c r="M121" s="12" t="s">
@@ -6881,7 +6851,7 @@
       <c r="K122" s="2">
         <v>1</v>
       </c>
-      <c r="L122" s="33">
+      <c r="L122" s="31">
         <v>2</v>
       </c>
       <c r="M122" s="12" t="s">
@@ -6916,7 +6886,7 @@
       <c r="K123" s="2">
         <v>1</v>
       </c>
-      <c r="L123" s="33">
+      <c r="L123" s="31">
         <v>2</v>
       </c>
       <c r="M123" s="12" t="s">
@@ -6951,7 +6921,7 @@
       <c r="K124" s="2">
         <v>1</v>
       </c>
-      <c r="L124" s="33">
+      <c r="L124" s="31">
         <v>2</v>
       </c>
       <c r="M124" s="12" t="s">
@@ -6986,7 +6956,7 @@
       <c r="K125" s="2">
         <v>1</v>
       </c>
-      <c r="L125" s="33">
+      <c r="L125" s="31">
         <v>1</v>
       </c>
       <c r="M125" s="12" t="s">
@@ -7021,7 +6991,7 @@
       <c r="K126" s="2">
         <v>1</v>
       </c>
-      <c r="L126" s="33">
+      <c r="L126" s="31">
         <v>3</v>
       </c>
       <c r="M126" s="12" t="s">
@@ -7056,7 +7026,7 @@
       <c r="K127" s="2">
         <v>1</v>
       </c>
-      <c r="L127" s="33">
+      <c r="L127" s="31">
         <v>5</v>
       </c>
       <c r="M127" s="12" t="s">
@@ -7091,7 +7061,7 @@
       <c r="K128" s="2">
         <v>1</v>
       </c>
-      <c r="L128" s="33">
+      <c r="L128" s="31">
         <v>5</v>
       </c>
       <c r="M128" s="12" t="s">
@@ -7126,7 +7096,7 @@
       <c r="K129" s="2">
         <v>1</v>
       </c>
-      <c r="L129" s="33">
+      <c r="L129" s="31">
         <v>7</v>
       </c>
       <c r="M129" s="12" t="s">
@@ -7161,7 +7131,7 @@
       <c r="K130" s="2">
         <v>1</v>
       </c>
-      <c r="L130" s="33">
+      <c r="L130" s="31">
         <v>9</v>
       </c>
       <c r="M130" s="12" t="s">
@@ -7196,7 +7166,7 @@
       <c r="K131" s="2">
         <v>1</v>
       </c>
-      <c r="L131" s="33">
+      <c r="L131" s="31">
         <v>9</v>
       </c>
       <c r="M131" s="12" t="s">
@@ -7231,7 +7201,7 @@
       <c r="K132" s="2">
         <v>1</v>
       </c>
-      <c r="L132" s="33">
+      <c r="L132" s="31">
         <v>11</v>
       </c>
       <c r="M132" s="12" t="s">
@@ -7266,7 +7236,7 @@
       <c r="K133" s="2">
         <v>1</v>
       </c>
-      <c r="L133" s="33">
+      <c r="L133" s="31">
         <v>13</v>
       </c>
       <c r="M133" s="12" t="s">
@@ -7301,7 +7271,7 @@
       <c r="K134" s="2">
         <v>1</v>
       </c>
-      <c r="L134" s="33">
+      <c r="L134" s="31">
         <v>11</v>
       </c>
       <c r="M134" s="12" t="s">
@@ -7336,7 +7306,7 @@
       <c r="K135" s="2">
         <v>1</v>
       </c>
-      <c r="L135" s="33">
+      <c r="L135" s="31">
         <v>13</v>
       </c>
       <c r="M135" s="12" t="s">
@@ -7371,7 +7341,7 @@
       <c r="K136" s="2">
         <v>1</v>
       </c>
-      <c r="L136" s="33">
+      <c r="L136" s="31">
         <v>15</v>
       </c>
       <c r="M136" s="12" t="s">
@@ -7406,7 +7376,7 @@
       <c r="K137" s="2">
         <v>1</v>
       </c>
-      <c r="L137" s="33">
+      <c r="L137" s="31">
         <v>15</v>
       </c>
       <c r="M137" s="12" t="s">
@@ -7441,7 +7411,7 @@
       <c r="K138" s="2">
         <v>1</v>
       </c>
-      <c r="L138" s="33">
+      <c r="L138" s="31">
         <v>17</v>
       </c>
       <c r="M138" s="12" t="s">
@@ -7476,7 +7446,7 @@
       <c r="K139" s="2">
         <v>1</v>
       </c>
-      <c r="L139" s="33">
+      <c r="L139" s="31">
         <v>17</v>
       </c>
       <c r="M139" s="12" t="s">
@@ -7511,7 +7481,7 @@
       <c r="K140" s="2">
         <v>1</v>
       </c>
-      <c r="L140" s="33">
+      <c r="L140" s="31">
         <v>19</v>
       </c>
       <c r="M140" s="12" t="s">
@@ -7546,7 +7516,7 @@
       <c r="K141" s="2">
         <v>1</v>
       </c>
-      <c r="L141" s="33">
+      <c r="L141" s="31">
         <v>19</v>
       </c>
       <c r="M141" s="12" t="s">
@@ -7581,7 +7551,7 @@
       <c r="K142" s="2">
         <v>1</v>
       </c>
-      <c r="L142" s="33">
+      <c r="L142" s="31">
         <v>21</v>
       </c>
       <c r="M142" s="12" t="s">
@@ -7616,7 +7586,7 @@
       <c r="K143" s="2">
         <v>1</v>
       </c>
-      <c r="L143" s="33">
+      <c r="L143" s="31">
         <v>21</v>
       </c>
       <c r="M143" s="12" t="s">
@@ -7651,7 +7621,7 @@
       <c r="K144" s="2">
         <v>1</v>
       </c>
-      <c r="L144" s="33">
+      <c r="L144" s="31">
         <v>23</v>
       </c>
       <c r="M144" s="12" t="s">
@@ -7686,7 +7656,7 @@
       <c r="K145" s="2">
         <v>1</v>
       </c>
-      <c r="L145" s="33">
+      <c r="L145" s="31">
         <v>23</v>
       </c>
       <c r="M145" s="12" t="s">
@@ -7721,7 +7691,7 @@
       <c r="K146" s="2">
         <v>1</v>
       </c>
-      <c r="L146" s="33">
+      <c r="L146" s="31">
         <v>25</v>
       </c>
       <c r="M146" s="12" t="s">
@@ -7756,7 +7726,7 @@
       <c r="K147" s="2">
         <v>1</v>
       </c>
-      <c r="L147" s="33">
+      <c r="L147" s="31">
         <v>25</v>
       </c>
       <c r="M147" s="12" t="s">
@@ -7791,7 +7761,7 @@
       <c r="K148" s="2">
         <v>1</v>
       </c>
-      <c r="L148" s="33">
+      <c r="L148" s="31">
         <v>19</v>
       </c>
       <c r="M148" s="12" t="s">
@@ -7826,7 +7796,7 @@
       <c r="K149" s="2">
         <v>1</v>
       </c>
-      <c r="L149" s="33">
+      <c r="L149" s="31">
         <v>19</v>
       </c>
       <c r="M149" s="12" t="s">
@@ -7861,7 +7831,7 @@
       <c r="K150" s="2">
         <v>1</v>
       </c>
-      <c r="L150" s="33">
+      <c r="L150" s="31">
         <v>21</v>
       </c>
       <c r="M150" s="12" t="s">
@@ -7896,7 +7866,7 @@
       <c r="K151" s="2">
         <v>1</v>
       </c>
-      <c r="L151" s="33">
+      <c r="L151" s="31">
         <v>3</v>
       </c>
       <c r="M151" s="12" t="s">
@@ -7931,7 +7901,7 @@
       <c r="K152" s="2">
         <v>1</v>
       </c>
-      <c r="L152" s="33">
+      <c r="L152" s="31">
         <v>9</v>
       </c>
       <c r="M152" s="12" t="s">
@@ -7966,7 +7936,7 @@
       <c r="K153" s="2">
         <v>1</v>
       </c>
-      <c r="L153" s="33">
+      <c r="L153" s="31">
         <v>15</v>
       </c>
       <c r="M153" s="12" t="s">
@@ -8001,7 +7971,7 @@
       <c r="K154" s="2">
         <v>1</v>
       </c>
-      <c r="L154" s="33">
+      <c r="L154" s="31">
         <v>21</v>
       </c>
       <c r="M154" s="12" t="s">
@@ -8036,7 +8006,7 @@
       <c r="K155" s="2">
         <v>1</v>
       </c>
-      <c r="L155" s="33">
+      <c r="L155" s="31">
         <v>17</v>
       </c>
       <c r="M155" s="12" t="s">
@@ -8543,8 +8513,8 @@
       <c r="E170" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F170" s="7">
-        <v>10000144</v>
+      <c r="F170" s="33">
+        <v>1021008</v>
       </c>
       <c r="G170" s="12">
         <v>16</v>
@@ -8564,9 +8534,7 @@
       <c r="L170" s="12">
         <v>0</v>
       </c>
-      <c r="M170" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="M170" s="7"/>
     </row>
     <row r="171" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="12">
@@ -8578,8 +8546,8 @@
       <c r="E171" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F171" s="7">
-        <v>10000145</v>
+      <c r="F171" s="33">
+        <v>1021009</v>
       </c>
       <c r="G171" s="12">
         <v>16</v>
@@ -8599,9 +8567,7 @@
       <c r="L171" s="12">
         <v>0</v>
       </c>
-      <c r="M171" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="M171" s="7"/>
     </row>
     <row r="172" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="12">
@@ -8613,8 +8579,8 @@
       <c r="E172" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F172" s="7">
-        <v>10000146</v>
+      <c r="F172" s="33">
+        <v>1022008</v>
       </c>
       <c r="G172" s="12">
         <v>16</v>
@@ -8634,9 +8600,7 @@
       <c r="L172" s="12">
         <v>0</v>
       </c>
-      <c r="M172" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="M172" s="7"/>
     </row>
     <row r="173" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="12">
@@ -8648,8 +8612,8 @@
       <c r="E173" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="7">
-        <v>10000147</v>
+      <c r="F173" s="33">
+        <v>1022009</v>
       </c>
       <c r="G173" s="12">
         <v>16</v>
@@ -8669,9 +8633,7 @@
       <c r="L173" s="12">
         <v>0</v>
       </c>
-      <c r="M173" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="M173" s="7"/>
     </row>
     <row r="174" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="12">
@@ -8683,14 +8645,14 @@
       <c r="E174" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F174" s="7">
-        <v>10000132</v>
+      <c r="F174" s="33">
+        <v>1023008</v>
       </c>
       <c r="G174" s="12">
         <v>16</v>
       </c>
       <c r="H174" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I174" s="12">
         <v>100</v>
@@ -8704,9 +8666,7 @@
       <c r="L174" s="12">
         <v>0</v>
       </c>
-      <c r="M174" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="M174" s="13"/>
     </row>
     <row r="175" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="12">
@@ -8718,8 +8678,8 @@
       <c r="E175" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F175" s="31">
-        <v>10025008</v>
+      <c r="F175" s="33">
+        <v>1023009</v>
       </c>
       <c r="G175" s="12">
         <v>16</v>
@@ -8739,9 +8699,7 @@
       <c r="L175" s="12">
         <v>0</v>
       </c>
-      <c r="M175" s="34" t="s">
-        <v>89</v>
-      </c>
+      <c r="M175" s="32"/>
     </row>
     <row r="176" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="12">
@@ -8753,14 +8711,14 @@
       <c r="E176" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F176" s="31">
-        <v>10025009</v>
+      <c r="F176" s="33">
+        <v>1024008</v>
       </c>
       <c r="G176" s="12">
         <v>16</v>
       </c>
       <c r="H176" s="12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I176" s="12">
         <v>100</v>
@@ -8774,28 +8732,26 @@
       <c r="L176" s="12">
         <v>0</v>
       </c>
-      <c r="M176" s="34" t="s">
-        <v>90</v>
-      </c>
+      <c r="M176" s="32"/>
     </row>
     <row r="177" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="12">
         <v>600008</v>
       </c>
       <c r="D177" s="12">
-        <v>0</v>
+        <v>600009</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="31">
-        <v>10000173</v>
+      <c r="F177" s="33">
+        <v>1024009</v>
       </c>
       <c r="G177" s="12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H177" s="12">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="I177" s="12">
         <v>100</v>
@@ -8809,18 +8765,168 @@
       <c r="L177" s="12">
         <v>0</v>
       </c>
-      <c r="M177" s="34" t="s">
-        <v>175</v>
-      </c>
+      <c r="M177" s="32"/>
     </row>
     <row r="178" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="2"/>
-      <c r="F178" s="32"/>
-    </row>
-    <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C178" s="12">
+        <v>600009</v>
+      </c>
+      <c r="D178" s="12">
+        <v>600010</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F178" s="33">
+        <v>1025008</v>
+      </c>
+      <c r="G178" s="12">
+        <v>16</v>
+      </c>
+      <c r="H178" s="12">
+        <v>10</v>
+      </c>
+      <c r="I178" s="12">
+        <v>100</v>
+      </c>
+      <c r="J178" s="12">
+        <v>1</v>
+      </c>
+      <c r="K178" s="12">
+        <v>2</v>
+      </c>
+      <c r="L178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="12">
+        <v>600010</v>
+      </c>
+      <c r="D179" s="12">
+        <v>600011</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F179" s="33">
+        <v>1025009</v>
+      </c>
+      <c r="G179" s="12">
+        <v>16</v>
+      </c>
+      <c r="H179" s="12">
+        <v>10</v>
+      </c>
+      <c r="I179" s="12">
+        <v>100</v>
+      </c>
+      <c r="J179" s="12">
+        <v>1</v>
+      </c>
+      <c r="K179" s="12">
+        <v>2</v>
+      </c>
+      <c r="L179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="12">
+        <v>600011</v>
+      </c>
+      <c r="D180" s="12">
+        <v>600012</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="33">
+        <v>1000018</v>
+      </c>
+      <c r="G180" s="12">
+        <v>16</v>
+      </c>
+      <c r="H180" s="12">
+        <v>100</v>
+      </c>
+      <c r="I180" s="12">
+        <v>300</v>
+      </c>
+      <c r="J180" s="12">
+        <v>1</v>
+      </c>
+      <c r="K180" s="12">
+        <v>2</v>
+      </c>
+      <c r="L180" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="12">
+        <v>600012</v>
+      </c>
+      <c r="D181" s="12">
+        <v>600013</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" s="33">
+        <v>1000019</v>
+      </c>
+      <c r="G181" s="12">
+        <v>16</v>
+      </c>
+      <c r="H181" s="12">
+        <v>30</v>
+      </c>
+      <c r="I181" s="12">
+        <v>300</v>
+      </c>
+      <c r="J181" s="12">
+        <v>1</v>
+      </c>
+      <c r="K181" s="12">
+        <v>2</v>
+      </c>
+      <c r="L181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="12">
+        <v>600013</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="33">
+        <v>1000029</v>
+      </c>
+      <c r="G182" s="12">
+        <v>16</v>
+      </c>
+      <c r="H182" s="12">
+        <v>50</v>
+      </c>
+      <c r="I182" s="12">
+        <v>300</v>
+      </c>
+      <c r="J182" s="12">
+        <v>1</v>
+      </c>
+      <c r="K182" s="12">
+        <v>2</v>
+      </c>
+      <c r="L182" s="12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="183" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="184" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="185" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
